--- a/_documentação/Doctos/Product_Backlog.xlsx
+++ b/_documentação/Doctos/Product_Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Meu Drive\Douglas\FIAP\Graduação\GulliverTraveller\_documentação\Doctos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019B804-3403-4DB5-A495-82E50A05AFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3F1869-1229-43EF-ABD0-A3C75BF0F83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{2D34FF06-8C03-4FEB-84EA-70D498A88D11}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="História" sheetId="2" r:id="rId2"/>
     <sheet name="Dicas Úteis" sheetId="3" r:id="rId3"/>
     <sheet name="Cultura" sheetId="4" r:id="rId4"/>
-    <sheet name="Italo" sheetId="5" r:id="rId5"/>
+    <sheet name="Ernesto" sheetId="5" r:id="rId5"/>
     <sheet name="Leonardo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1312,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC93BD5D-7B3B-4C98-A65E-5182CFCA0DB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92C1951-623E-4436-A4A0-E3768B02CCC3}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F13"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E504993A-1545-4892-936C-2A25B545DB24}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:F14"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16561835-2168-43B9-B14F-D408431EBBB7}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2524,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CFB6CA-FF19-4CE4-B4E9-2AFA42B8CB80}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5"/>
@@ -3190,7 +3190,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
